--- a/專題/3.xlsx
+++ b/專題/3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>報酬指數</t>
+          <t>指數</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -471,12 +471,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>寶島股價報酬指數</t>
+          <t>寶島股價指數</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23,207.55</t>
+          <t>16,612.95</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,17 +486,13 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>142.16</t>
+          <t>102.42</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-0.61</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.61</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,12 +500,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>發行量加權股價報酬指數</t>
+          <t>發行量加權股價指數</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>30,141.47</t>
+          <t>14,522.96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,17 +515,13 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>186.02</t>
+          <t>89.63</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.61</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.61</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,12 +529,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>臺灣公司治理100報酬指數</t>
+          <t>臺灣公司治理100指數</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11,374.97</t>
+          <t>8,293.37</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,17 +544,13 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.76</t>
+          <t>58.88</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,12 +558,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>臺灣50報酬指數</t>
+          <t>臺灣50指數</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>23,186.80</t>
+          <t>11,092.49</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -585,17 +573,13 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>173.50</t>
+          <t>83.00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-0.74</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.74</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,12 +587,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>臺灣50權重上限30%報酬指數</t>
+          <t>臺灣50權重上限30%指數</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22,301.19</t>
+          <t>10,555.73</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -618,17 +602,13 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>167.28</t>
+          <t>79.18</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-0.74</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.74</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,12 +616,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>臺灣中型100報酬指數</t>
+          <t>臺灣中型100指數</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24,970.32</t>
+          <t>12,772.14</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -651,17 +631,13 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>170.06</t>
+          <t>86.98</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-0.68</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.68</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -669,12 +645,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>臺灣資訊科技股報酬指數</t>
+          <t>臺灣資訊科技指數</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>37,223.68</t>
+          <t>18,966.42</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -684,17 +660,13 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>274.34</t>
+          <t>139.79</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-0.73</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.73</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -702,12 +674,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>臺灣發達報酬指數</t>
+          <t>臺灣發達指數</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18,335.18</t>
+          <t>9,510.00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -717,17 +689,13 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>122.57</t>
+          <t>63.57</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-0.66</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.66</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -735,12 +703,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>臺灣高股息報酬指數</t>
+          <t>臺灣高股息指數</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16,416.63</t>
+          <t>5,947.38</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -750,17 +718,13 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26.49</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.16</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -768,12 +732,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>臺灣就業99報酬指數</t>
+          <t>臺灣就業99指數</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13,901.87</t>
+          <t>8,912.93</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -783,17 +747,13 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>114.03</t>
+          <t>73.11</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-0.8100000000000001</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -801,12 +761,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>臺灣高薪100報酬指數</t>
+          <t>臺灣高薪100指數</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11,504.00</t>
+          <t>7,980.33</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -816,17 +776,13 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>66.48</t>
+          <t>46.12</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-0.57</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.57</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -834,12 +790,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>未含金融電子報酬指數</t>
+          <t>未含金融指數</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>30,236.52</t>
+          <t>12,472.38</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -849,17 +805,13 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.67</t>
+          <t>74.31</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-0.28</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.59</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -867,12 +819,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>小型股300報酬指數</t>
+          <t>未含電子指數</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10,851.07</t>
+          <t>17,081.46</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -882,17 +834,13 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11.01</t>
+          <t>73.86</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.43</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -900,12 +848,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>水泥類報酬指數</t>
+          <t>未含金融電子指數</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>306.35</t>
+          <t>14,213.75</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -915,17 +863,13 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>40.28</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.28</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -933,12 +877,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>食品類報酬指數</t>
+          <t>小型股300指數</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2,811.08</t>
+          <t>8,194.96</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -948,17 +892,13 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>-0.24</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -966,12 +906,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>塑膠類報酬指數</t>
+          <t>水泥窯製類指數</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>437.71</t>
+          <t>612.28</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -981,17 +921,13 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>-0.59</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -999,12 +935,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>紡織纖維類報酬指數</t>
+          <t>塑膠化工類指數</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>943.58</t>
+          <t>819.16</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1014,17 +950,13 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>14.78</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>-1.54</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.32</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1032,30 +964,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>電機機械類報酬指數</t>
+          <t>機電類指數</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>341.64</t>
+          <t>3,769.01</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1063,32 +993,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>電器電纜類報酬指數</t>
+          <t>水泥類指數</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>163.95</t>
+          <t>154.16</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.28</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1096,32 +1022,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>化學生技醫療類報酬指數</t>
+          <t>食品類指數</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>184.04</t>
+          <t>1,797.84</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.24</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1129,12 +1051,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>化學類報酬指數</t>
+          <t>塑膠類指數</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>215.70</t>
+          <t>238.46</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1144,17 +1066,13 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-0.13</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.59</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1162,32 +1080,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>生技醫療類報酬指數</t>
+          <t>紡織纖維類指數</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>103.37</t>
+          <t>576.81</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>1.54</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1195,32 +1109,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>玻璃陶瓷類報酬指數</t>
+          <t>電機機械類指數</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>79.84</t>
+          <t>226.09</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.47</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1228,12 +1136,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>造紙類報酬指數</t>
+          <t>電器電纜類指數</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>460.09</t>
+          <t>106.26</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1243,17 +1151,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1261,12 +1163,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>鋼鐵類報酬指數</t>
+          <t>化學生技醫療類指數</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>235.37</t>
+          <t>117.31</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1276,17 +1178,11 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1294,12 +1190,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>橡膠類報酬指數</t>
+          <t>化學類指數</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>373.60</t>
+          <t>128.21</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1309,17 +1205,13 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>-1.03</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.13</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1327,32 +1219,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>汽車類報酬指數</t>
+          <t>生技醫療類指數</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>533.73</t>
+          <t>73.05</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>-1.41</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1360,12 +1246,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>電子工業類報酬指數</t>
+          <t>玻璃陶瓷類指數</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1,262.23</t>
+          <t>63.16</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1375,17 +1261,13 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>-0.74</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.46</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1393,32 +1275,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>半導體類報酬指數</t>
+          <t>造紙類指數</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>559.16</t>
+          <t>295.71</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>-0.65</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1426,32 +1302,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>電腦及週邊設備類報酬指數</t>
+          <t>鋼鐵類指數</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>272.03</t>
+          <t>139.19</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1459,12 +1329,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>光電類報酬指數</t>
+          <t>橡膠類指數</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>49.12</t>
+          <t>232.54</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1474,17 +1344,13 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>-0.63</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>1.03</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1492,12 +1358,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>通信網路類報酬指數</t>
+          <t>汽車類指數</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>261.66</t>
+          <t>332.54</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1507,17 +1373,13 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>1.41</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1525,12 +1387,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>電子零組件類報酬指數</t>
+          <t>電子工業類指數</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>298.65</t>
+          <t>672.21</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1540,17 +1402,13 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>-1.32</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.73</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1558,12 +1416,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>電子通路類報酬指數</t>
+          <t>半導體類指數</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>408.02</t>
+          <t>317.59</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1573,17 +1431,13 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>-0.52</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.65</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1591,12 +1445,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>資訊服務類報酬指數</t>
+          <t>電腦及週邊設備類指數</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>285.61</t>
+          <t>123.24</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1606,17 +1460,13 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.35</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1624,12 +1474,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>其他電子類報酬指數</t>
+          <t>光電類指數</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>154.82</t>
+          <t>33.25</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1639,17 +1489,13 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>-0.85</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.63</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1657,12 +1503,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>建材營造類報酬指數</t>
+          <t>通信網路類指數</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>703.12</t>
+          <t>124.67</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1672,17 +1518,13 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>1.06</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1690,32 +1532,28 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>航運類報酬指數</t>
+          <t>電子零組件類指數</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>253.11</t>
+          <t>160.75</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>1.32</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1723,12 +1561,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>觀光類報酬指數</t>
+          <t>電子通路類指數</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>160.80</t>
+          <t>169.90</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1738,17 +1576,13 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.52</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1756,12 +1590,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>金融保險類報酬指數</t>
+          <t>資訊服務類指數</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2,630.23</t>
+          <t>122.46</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1771,17 +1605,13 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>20.27</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>-0.76</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1789,12 +1619,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>貿易百貨類報酬指數</t>
+          <t>其他電子類指數</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>432.23</t>
+          <t>95.69</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1804,17 +1634,13 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.86</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1822,12 +1648,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>油電燃氣類報酬指數</t>
+          <t>建材營造類指數</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>168.60</t>
+          <t>348.94</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1837,17 +1663,13 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+        <v>0.19</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1855,32 +1677,283 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>其他類報酬指數</t>
+          <t>航運類指數</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>597.00</t>
+          <t>158.40</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>-1.28</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>報酬指數(臺灣證券交易所)</t>
-        </is>
-      </c>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>觀光類指數</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>115.75</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>金融保險類指數</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1,514.80</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>貿易百貨類指數</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>278.18</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>油電燃氣類指數</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>106.51</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>其他類指數</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>351.12</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>臺指日報酬兩倍指數</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>26,400.06</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>327.89</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>臺指反向一倍指數</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>4,716.76</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>28.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>電子類兩倍槓桿指數</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>24,850.04</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>370.20</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>電子類反向指數</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>4,273.29</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/專題/3.xlsx
+++ b/專題/3.xlsx
@@ -476,22 +476,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16,612.95</t>
+          <t>16,863.34</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>102.42</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0.61</v>
-      </c>
+          <t>250.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -505,22 +503,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14,522.96</t>
+          <t>14,739.36</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.63</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0.61</v>
-      </c>
+          <t>216.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -534,22 +530,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8,293.37</t>
+          <t>8,417.44</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>58.88</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0.7</v>
-      </c>
+          <t>124.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -563,22 +557,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11,092.49</t>
+          <t>11,271.36</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0.74</v>
-      </c>
+          <t>178.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -592,22 +584,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10,555.73</t>
+          <t>10,716.29</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>79.18</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0.74</v>
-      </c>
+          <t>160.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -621,22 +611,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12,772.14</t>
+          <t>12,984.10</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.98</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0.68</v>
-      </c>
+          <t>211.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -650,22 +638,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18,966.42</t>
+          <t>19,328.54</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>139.79</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0.73</v>
-      </c>
+          <t>362.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -679,22 +665,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9,510.00</t>
+          <t>9,621.79</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>63.57</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0.66</v>
-      </c>
+          <t>111.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -708,22 +692,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5,947.38</t>
+          <t>6,002.28</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0.16</v>
-      </c>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -737,22 +719,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8,912.93</t>
+          <t>9,021.84</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>73.11</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>0.8100000000000001</v>
-      </c>
+          <t>108.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -766,22 +746,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>7,980.33</t>
+          <t>8,071.76</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>46.12</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>0.57</v>
-      </c>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -795,22 +773,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12,472.38</t>
+          <t>12,669.20</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>74.31</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0.59</v>
-      </c>
+          <t>196.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -824,22 +800,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17,081.46</t>
+          <t>17,251.07</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>73.86</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0.43</v>
-      </c>
+          <t>169.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -853,22 +827,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14,213.75</t>
+          <t>14,363.25</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>40.28</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>0.28</v>
-      </c>
+          <t>149.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -882,22 +854,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8,194.96</t>
+          <t>8,282.99</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.1</v>
-      </c>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -911,22 +881,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>612.28</t>
+          <t>613.17</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0.3</v>
-      </c>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -940,22 +908,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>819.16</t>
+          <t>827.80</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.32</v>
-      </c>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -969,22 +935,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3,769.01</t>
+          <t>3,837.06</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>26.88</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0.71</v>
-      </c>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -998,7 +962,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>154.16</t>
+          <t>153.73</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1027,22 +991,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1,797.84</t>
+          <t>1,810.75</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>0.24</v>
-      </c>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1056,22 +1018,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>238.46</t>
+          <t>241.73</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>0.59</v>
-      </c>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1085,22 +1045,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>576.81</t>
+          <t>582.31</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>9.04</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1.54</v>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1114,7 +1072,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>226.09</t>
+          <t>229.48</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1124,7 +1082,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1141,7 +1099,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>106.26</t>
+          <t>107.22</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1151,7 +1109,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1168,7 +1126,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>117.31</t>
+          <t>117.72</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1178,7 +1136,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1195,22 +1153,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>128.21</t>
+          <t>129.24</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.13</v>
-      </c>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1224,20 +1180,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>73.05</t>
+          <t>73.00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1251,22 +1209,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>63.16</t>
+          <t>64.62</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0.46</v>
-      </c>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1280,7 +1236,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>295.71</t>
+          <t>296.00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1290,7 +1246,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1307,20 +1263,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>139.19</t>
+          <t>138.94</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.18</v>
+      </c>
       <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1334,22 +1292,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>232.54</t>
+          <t>234.88</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>1.03</v>
-      </c>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1363,22 +1319,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>332.54</t>
+          <t>343.81</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>1.41</v>
-      </c>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1392,22 +1346,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>672.21</t>
+          <t>684.45</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>0.73</v>
-      </c>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1421,22 +1373,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>317.59</t>
+          <t>323.91</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>0.65</v>
-      </c>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1450,22 +1400,20 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>123.24</t>
+          <t>125.82</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>0.35</v>
-      </c>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1479,22 +1427,20 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>33.25</t>
+          <t>33.90</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0.63</v>
-      </c>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1508,22 +1454,20 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>124.67</t>
+          <t>125.82</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1.06</v>
-      </c>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1537,22 +1481,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>160.75</t>
+          <t>163.25</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>1.32</v>
-      </c>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1566,22 +1508,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>169.90</t>
+          <t>170.98</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>0.52</v>
-      </c>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -1595,22 +1535,20 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>122.46</t>
+          <t>122.83</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0.7</v>
-      </c>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -1624,22 +1562,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>95.69</t>
+          <t>97.18</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.86</v>
-      </c>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1653,22 +1589,20 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>348.94</t>
+          <t>350.38</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>0.19</v>
-      </c>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -1682,20 +1616,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>158.40</t>
+          <t>157.77</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.4</v>
+      </c>
       <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -1709,22 +1645,20 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>115.75</t>
+          <t>116.98</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>0.6</v>
-      </c>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -1738,22 +1672,20 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1,514.80</t>
+          <t>1,527.82</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11.67</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>0.76</v>
-      </c>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -1767,22 +1699,20 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>278.18</t>
+          <t>283.34</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>0.86</v>
-      </c>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -1796,22 +1726,20 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>106.51</t>
+          <t>108.70</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0.08</v>
-      </c>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -1825,22 +1753,20 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>351.12</t>
+          <t>357.01</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>1.28</v>
-      </c>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -1854,22 +1780,20 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>26,400.06</t>
+          <t>27,186.81</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>327.89</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>1.23</v>
-      </c>
+          <t>786.75</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -1883,20 +1807,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4,716.76</t>
+          <t>4,646.48</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>28.76</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+          <t>70.28</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1.49</v>
+      </c>
       <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -1910,22 +1836,20 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>24,850.04</t>
+          <t>25,755.01</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>370.20</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>1.47</v>
-      </c>
+          <t>904.97</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -1939,20 +1863,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4,273.29</t>
+          <t>4,195.48</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>31.13</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1.82</v>
+      </c>
       <c r="G53" t="inlineStr"/>
     </row>
   </sheetData>

--- a/專題/3.xlsx
+++ b/專題/3.xlsx
@@ -476,20 +476,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16,863.34</t>
+          <t>16,323.63</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>250.39</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>183.70</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1.11</v>
+      </c>
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -503,20 +505,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14,739.36</t>
+          <t>14,271.63</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>216.40</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>171.31</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.19</v>
+      </c>
       <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -530,20 +534,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8,417.44</t>
+          <t>8,138.03</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>124.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>122.22</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.48</v>
+      </c>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -557,20 +563,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11,271.36</t>
+          <t>10,839.24</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>178.87</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>185.15</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1.68</v>
+      </c>
       <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -584,20 +592,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10,716.29</t>
+          <t>10,354.03</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>160.56</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>141.01</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.34</v>
+      </c>
       <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -611,20 +621,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12,984.10</t>
+          <t>12,646.51</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>211.96</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.65</v>
+      </c>
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -638,20 +650,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19,328.54</t>
+          <t>18,365.42</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>362.12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>354.33</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.89</v>
+      </c>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -665,20 +679,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9,621.79</t>
+          <t>9,573.43</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>111.79</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.85</v>
+      </c>
       <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -692,20 +708,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6,002.28</t>
+          <t>5,999.35</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>54.90</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>58.63</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.97</v>
+      </c>
       <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -719,20 +737,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9,021.84</t>
+          <t>8,766.58</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>108.91</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9</v>
+      </c>
       <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -746,20 +766,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8,071.76</t>
+          <t>7,924.16</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.43</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>58.38</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.73</v>
+      </c>
       <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -773,20 +795,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12,669.20</t>
+          <t>12,243.83</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>196.82</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>158.20</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.28</v>
+      </c>
       <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -800,20 +824,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17,251.07</t>
+          <t>17,089.78</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>169.61</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>103.38</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6</v>
+      </c>
       <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -827,20 +853,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14,363.25</t>
+          <t>14,286.46</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>149.50</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.63</v>
+      </c>
       <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -854,20 +882,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8,282.99</t>
+          <t>8,082.54</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>88.03</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.25</v>
+      </c>
       <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -881,20 +911,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>613.17</t>
+          <t>604.07</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.46</v>
+      </c>
       <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -908,20 +940,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>827.80</t>
+          <t>807.38</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8.64</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.67</v>
+      </c>
       <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -935,20 +969,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3,837.06</t>
+          <t>3,660.66</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>68.05</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>57.42</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.54</v>
+      </c>
       <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -962,7 +998,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>153.73</t>
+          <t>155.29</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -972,11 +1008,11 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.28</v>
+        <v>0.59</v>
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -991,7 +1027,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1,810.75</t>
+          <t>1,793.60</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1001,7 +1037,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12.91</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1018,20 +1054,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>241.73</t>
+          <t>235.68</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.83</v>
+      </c>
       <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1045,20 +1083,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>582.31</t>
+          <t>582.52</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.14</v>
+      </c>
       <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1072,20 +1112,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>229.48</t>
+          <t>222.10</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.06</v>
+      </c>
       <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1099,20 +1141,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>107.22</t>
+          <t>104.81</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.31</v>
+      </c>
       <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1126,20 +1170,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>117.72</t>
+          <t>114.73</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.43</v>
+      </c>
       <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1153,20 +1199,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>129.24</t>
+          <t>125.50</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.92</v>
+      </c>
       <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1180,22 +1228,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>73.00</t>
+          <t>71.39</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0.07000000000000001</v>
-      </c>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1209,7 +1255,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>64.62</t>
+          <t>55.66</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1219,7 +1265,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1236,20 +1282,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>296.00</t>
+          <t>290.06</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.98</v>
+      </c>
       <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1263,7 +1311,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>138.94</t>
+          <t>144.20</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1273,11 +1321,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="G31" t="inlineStr"/>
     </row>
@@ -1292,20 +1340,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>234.88</t>
+          <t>230.10</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.35</v>
+      </c>
       <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1319,20 +1369,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>343.81</t>
+          <t>319.48</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11.27</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.6899999999999999</v>
+      </c>
       <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1346,20 +1398,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>684.45</t>
+          <t>652.59</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12.24</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.58</v>
+      </c>
       <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1373,20 +1427,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>323.91</t>
+          <t>305.84</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2.27</v>
+      </c>
       <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1400,20 +1456,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>125.82</t>
+          <t>123.33</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.44</v>
+      </c>
       <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1427,19 +1485,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>33.90</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
+          <t>32.51</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
     </row>
@@ -1454,20 +1504,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>125.82</t>
+          <t>123.97</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.8100000000000001</v>
+      </c>
       <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1481,20 +1533,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>163.25</t>
+          <t>153.57</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.71</v>
+      </c>
       <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1508,20 +1562,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>170.98</t>
+          <t>170.94</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.31</v>
+      </c>
       <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -1535,20 +1591,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>122.83</t>
+          <t>121.94</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.2</v>
+      </c>
       <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -1562,20 +1620,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>97.18</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.25</v>
+      </c>
       <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1589,20 +1649,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>350.38</t>
+          <t>346.07</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.44</v>
+      </c>
       <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -1616,7 +1678,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>157.77</t>
+          <t>170.00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1626,11 +1688,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.4</v>
+        <v>1.47</v>
       </c>
       <c r="G44" t="inlineStr"/>
     </row>
@@ -1645,7 +1707,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>116.98</t>
+          <t>115.34</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1655,7 +1717,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -1672,20 +1734,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1,527.82</t>
+          <t>1,499.65</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>13.02</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.55</v>
+      </c>
       <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -1699,20 +1763,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>283.34</t>
+          <t>278.53</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.68</v>
+      </c>
       <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -1726,20 +1792,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>108.70</t>
+          <t>105.43</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
       <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -1753,20 +1821,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>357.01</t>
+          <t>358.50</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.3</v>
+      </c>
       <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -1780,20 +1850,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>27,186.81</t>
+          <t>25,464.21</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>786.75</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+          <t>618.75</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>2.37</v>
+      </c>
       <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -1807,22 +1879,20 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4,646.48</t>
+          <t>4,794.22</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>70.28</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>1.49</v>
-      </c>
+          <t>56.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -1836,20 +1906,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>25,755.01</t>
+          <t>23,382.81</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>904.97</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+          <t>765.49</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>3.17</v>
+      </c>
       <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -1863,22 +1935,20 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4,195.48</t>
+          <t>4,394.75</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>77.81</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>1.82</v>
-      </c>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
     </row>
   </sheetData>
